--- a/Nuevo Enfoque Datos/parametroQuimicoSuelo.xlsx
+++ b/Nuevo Enfoque Datos/parametroQuimicoSuelo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talento\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talento\Downloads\Nuevo Enfoque Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DC22BA-F86A-4DD0-8075-62D775ABBCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2D1743-A6C5-44E6-8062-D5190B2A3756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -225,11 +225,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,7 +536,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D2" sqref="D2:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -582,10 +583,10 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F2" t="s">
@@ -599,10 +600,10 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
@@ -616,10 +617,10 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -633,10 +634,10 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
@@ -650,10 +651,10 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
@@ -667,10 +668,10 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -684,10 +685,10 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
@@ -701,10 +702,10 @@
       <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F9" t="s">
@@ -718,10 +719,10 @@
       <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -735,10 +736,10 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F11" t="s">
@@ -752,10 +753,10 @@
       <c r="C12" t="s">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F12" t="s">
@@ -769,10 +770,10 @@
       <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F13" t="s">
@@ -789,10 +790,10 @@
       <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F14" t="s">
@@ -806,10 +807,10 @@
       <c r="C15" t="s">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F15" t="s">
@@ -823,10 +824,10 @@
       <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
